--- a/paper/documents/log25.xlsx
+++ b/paper/documents/log25.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="59">
   <si>
     <t>chemotactic Strength With Attract</t>
   </si>
@@ -145,6 +145,57 @@
   </si>
   <si>
     <t xml:space="preserve">  	 	0.0012574117899520453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.408269787159056E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.03720488968869235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.06418324651902178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	9.031411634719176E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.133387916038291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.01568800014006551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.998373616196977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.049116719260224644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.794854024412359E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.521704510055601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.240628556678441E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.8286276698093897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.559039958995246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.0012217007069712767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.279353044636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.41672878927443E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 472.35509400224385]</t>
   </si>
 </sst>
 </file>
@@ -800,10 +851,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$H$2:$H$63</c:f>
+              <c:f>logCsv!$H$2:$H$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -983,6 +1034,126 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>269.81432051087398</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>261.40835232595998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>261.40835232595998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>261.40835232595998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>327.52278838880898</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>270.82094471900899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>261.40835232595998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>377.04021491950499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>375.95915135384303</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>362.80003751651702</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>400.81728556656401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>435.47732332411903</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>403.23753476843598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>435.47732332411903</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>419.808815527452</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>308.13683552983298</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>446.21100057756598</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>203.34111714248499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>458.66983168607999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1398,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>logCsv!$A$64</c:f>
+              <c:f>logCsv!$A$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,10 +1427,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$B$64:$T$64</c:f>
+              <c:f>logCsv!$B$103:$AF$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1316,6 +1487,42 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280.34105413590601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>403.69339294538099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>472.35509400224299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,8 +2788,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2611,8 +2818,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2933,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:AG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,7 +4393,7 @@
         <v>165.97910506150501</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.7301702160826604</v>
       </c>
@@ -4212,7 +4419,7 @@
         <v>245.54998455707101</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.7301702160826604</v>
       </c>
@@ -4238,7 +4445,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.7301702160826604</v>
       </c>
@@ -4264,7 +4471,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.7301702160826604</v>
       </c>
@@ -4290,7 +4497,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.7301702160826604</v>
       </c>
@@ -4316,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.7301702160826604</v>
       </c>
@@ -4342,7 +4549,7 @@
         <v>261.40835232595998</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.7301702160826604</v>
       </c>
@@ -4368,7 +4575,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.7301702160826604</v>
       </c>
@@ -4394,7 +4601,7 @@
         <v>261.40835232595998</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.7301702160826604</v>
       </c>
@@ -4420,7 +4627,7 @@
         <v>261.40835232595998</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.7301702160826604</v>
       </c>
@@ -4446,7 +4653,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.7301702160826604</v>
       </c>
@@ -4472,7 +4679,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.7301702160826604</v>
       </c>
@@ -4498,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.7301702160826604</v>
       </c>
@@ -4524,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.7301702160826604</v>
       </c>
@@ -4550,7 +4757,7 @@
         <v>280.34105413590601</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.7301702160826604</v>
       </c>
@@ -4572,67 +4779,1123 @@
       <c r="G63" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B64">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64">
+        <v>269.81432051087398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B65">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <v>280.34105413590601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B66">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66">
+        <v>261.40835232595998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B67">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B68">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <v>261.40835232595998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B69">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <v>280.34105413590601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B70">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B71">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B72">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72">
+        <v>261.40835232595998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B73">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>280.34105413590601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B74">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74">
+        <v>327.52278838880898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B75">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75">
+        <v>270.82094471900899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5.7301702160826604</v>
+      </c>
+      <c r="B76">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76">
+        <v>261.40835232595998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B77">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.0102822016417399</v>
+      </c>
+      <c r="B78">
+        <v>3.86775347361379</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78">
+        <v>377.04021491950499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.0102822016417399</v>
+      </c>
+      <c r="B79">
+        <v>3.86775347361379</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79">
+        <v>375.95915135384303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.0102822016417399</v>
+      </c>
+      <c r="B80">
+        <v>3.86775347361379</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80">
+        <v>362.80003751651702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B81">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B82">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B83">
+        <v>2.2793884869889101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83">
+        <v>400.81728556656401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B84">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B85">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85">
+        <v>435.47732332411903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B86">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86">
+        <v>403.23753476843598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B87">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B88">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B89">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89">
+        <v>403.69339294538099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B90">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B91">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91">
+        <v>435.47732332411903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B92">
+        <v>5.5724916173989003</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B93">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93">
+        <v>419.808815527452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B94">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B95">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B96">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96">
+        <v>308.13683552983298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B97">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B98">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B99">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99">
+        <v>446.21100057756598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B100">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100">
+        <v>203.34111714248499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B101">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B102">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>35</v>
       </c>
-      <c r="B64">
+      <c r="B103">
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C103">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D103">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E103">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F103">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G103">
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H103">
         <v>0</v>
       </c>
-      <c r="I64">
+      <c r="I103">
         <v>0</v>
       </c>
-      <c r="J64">
+      <c r="J103">
         <v>173.069712000457</v>
       </c>
-      <c r="K64">
+      <c r="K103">
         <v>173.069712000457</v>
       </c>
-      <c r="L64">
+      <c r="L103">
         <v>280.34105413590601</v>
       </c>
-      <c r="M64">
+      <c r="M103">
         <v>280.34105413590601</v>
       </c>
-      <c r="N64">
+      <c r="N103">
         <v>280.34105413590601</v>
       </c>
-      <c r="O64">
+      <c r="O103">
         <v>280.34105413590601</v>
       </c>
-      <c r="P64">
+      <c r="P103">
         <v>280.34105413590601</v>
       </c>
-      <c r="Q64">
+      <c r="Q103">
         <v>280.34105413590601</v>
       </c>
-      <c r="R64">
+      <c r="R103">
         <v>280.34105413590601</v>
       </c>
-      <c r="S64">
+      <c r="S103">
         <v>280.34105413590601</v>
       </c>
-      <c r="T64">
+      <c r="T103">
         <v>280.34105413590601</v>
+      </c>
+      <c r="U103">
+        <v>280.34105413590601</v>
+      </c>
+      <c r="V103">
+        <v>280.34105413590601</v>
+      </c>
+      <c r="W103">
+        <v>403.69339294538099</v>
+      </c>
+      <c r="X103">
+        <v>403.69339294538099</v>
+      </c>
+      <c r="Y103">
+        <v>403.69339294538099</v>
+      </c>
+      <c r="Z103">
+        <v>403.69339294538099</v>
+      </c>
+      <c r="AA103">
+        <v>403.69339294538099</v>
+      </c>
+      <c r="AB103">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AC103">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AD103">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AE103">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AF103">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/paper/documents/log25.xlsx
+++ b/paper/documents/log25.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="89">
   <si>
     <t>chemotactic Strength With Attract</t>
   </si>
@@ -195,7 +195,97 @@
     <t xml:space="preserve">  	 	5.41672878927443E-4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 472.35509400224385]</t>
+    <t xml:space="preserve">  	 	0.05653246582121763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.785981693642426E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.594009852633181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.9464693204949652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.004767092190501166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.29214231240878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.571324406985885E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.009689397806401625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.1134868882355193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.346201002321579E-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.04810837585672925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.4259655122349475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.00981014954599185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.9441007328657625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.04681347318841894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	6.434906824667239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	8.854038087703833E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	1.2156877407927897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	7.553604942001923E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.0980430597434285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.0011171258805184768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.029069764072960348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.0783685404358483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.865564137399637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.08122613495147551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	3.339645278458721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.715772924819133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	0.0017175378049469805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	4.978095304325744E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	5.443063295830502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  	 	2.1711178378980707</t>
   </si>
 </sst>
 </file>
@@ -851,10 +941,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$H$2:$H$102</c:f>
+              <c:f>logCsv!$H$2:$H$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="184"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1154,6 +1244,252 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>393.93881911929299</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>376.73098192376801</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>337.41914793478901</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>379.08505713100499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>177.944841932158</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>271.856930642691</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>132.493501922272</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>357.974071161057</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>375.15700128962698</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>429.78122143907802</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>396.92519722416199</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>427.99457835671802</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>387.494366109873</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>378.01654442292602</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>385.66594618986898</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>144.00827784155899</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>433.93143000542398</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>408.42253120568</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>220.27838063591801</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>401.32149417049402</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>283.50135876115502</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>399.81536374604798</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>340.81608229476501</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>462.63863490090102</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>458.66983168607999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>224.28309920146501</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>398.75623919288802</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>373.08084592135202</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>377.22334370862302</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>209.84846547938901</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>402.46831315335902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>logCsv!$A$103</c:f>
+              <c:f>logCsv!$A$186</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1427,10 +1763,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>logCsv!$B$103:$AF$103</c:f>
+              <c:f>logCsv!$B$186:$BD$186</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1523,6 +1859,78 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>472.35509400224299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>489.70666033384703</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>489.70666033384703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,13 +3191,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:colOff>323848</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2818,8 +3226,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3140,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG103"/>
+  <dimension ref="A1:BD186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG187" sqref="AG187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5641,7 +6049,7 @@
         <v>308.13683552983298</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2.7270934416336701</v>
       </c>
@@ -5667,7 +6075,7 @@
         <v>472.35509400224299</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2.7270934416336701</v>
       </c>
@@ -5693,7 +6101,7 @@
         <v>458.66983168607999</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2.7270934416336701</v>
       </c>
@@ -5719,7 +6127,7 @@
         <v>446.21100057756598</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2.7270934416336701</v>
       </c>
@@ -5745,7 +6153,7 @@
         <v>203.34111714248499</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.7270934416336701</v>
       </c>
@@ -5771,7 +6179,7 @@
         <v>472.35509400224299</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2.7270934416336701</v>
       </c>
@@ -5797,105 +6205,2329 @@
         <v>458.66983168607999</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B103">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B104">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B105">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105">
+        <v>393.93881911929299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B106">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>59</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106">
+        <v>376.73098192376801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B107">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B108">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4.0558047665424803</v>
+      </c>
+      <c r="B109">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109">
+        <v>337.41914793478901</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B110">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B111">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B112">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112">
+        <v>379.08505713100499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3.7517567707993198</v>
+      </c>
+      <c r="B113">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113">
+        <v>177.944841932158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B114">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B115">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B116">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116">
+        <v>271.856930642691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B117">
+        <v>2.5470603865376198</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>52</v>
+      </c>
+      <c r="G117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H117">
+        <v>132.493501922272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B118">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B119">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B120">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B121">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B122">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>51</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>64</v>
+      </c>
+      <c r="G122" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122">
+        <v>357.974071161057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B123">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>52</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B124">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B125">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
+      <c r="H125">
+        <v>375.15700128962698</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B126">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B127">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B128">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128">
+        <v>429.78122143907802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B129">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>52</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B130">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B131">
+        <v>5.9521022197153401</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>52</v>
+      </c>
+      <c r="G131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B132">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" t="s">
+        <v>67</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132">
+        <v>396.92519722416199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B133">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" t="s">
+        <v>52</v>
+      </c>
+      <c r="G133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B134">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>52</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B135">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" t="s">
+        <v>68</v>
+      </c>
+      <c r="F135" t="s">
+        <v>52</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135">
+        <v>427.99457835671802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B136">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" t="s">
+        <v>52</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136">
+        <v>387.494366109873</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B137">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>52</v>
+      </c>
+      <c r="G137" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B138">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" t="s">
+        <v>52</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B139">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139">
+        <v>378.01654442292602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B140">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" t="s">
+        <v>52</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140">
+        <v>385.66594618986898</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B141">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" t="s">
+        <v>72</v>
+      </c>
+      <c r="F141" t="s">
+        <v>52</v>
+      </c>
+      <c r="G141" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141">
+        <v>144.00827784155899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B142">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>51</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>52</v>
+      </c>
+      <c r="G142" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B143">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>52</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B144">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C144" t="s">
+        <v>73</v>
+      </c>
+      <c r="D144" t="s">
+        <v>51</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144">
+        <v>433.93143000542398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B145">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>74</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145">
+        <v>408.42253120568</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B146">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B147">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" t="s">
+        <v>52</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B148">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C148" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" t="s">
+        <v>76</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B149">
+        <v>2.4400783522378902</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" t="s">
+        <v>52</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149">
+        <v>220.27838063591801</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B150">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>51</v>
+      </c>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" t="s">
+        <v>52</v>
+      </c>
+      <c r="G150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B151">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" t="s">
+        <v>52</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B152">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C152" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" t="s">
+        <v>51</v>
+      </c>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" t="s">
+        <v>52</v>
+      </c>
+      <c r="G152" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152">
+        <v>401.32149417049402</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B153">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" t="s">
+        <v>52</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153">
+        <v>283.50135876115502</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B154">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>51</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" t="s">
+        <v>52</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B155">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B156">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>51</v>
+      </c>
+      <c r="E156" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" t="s">
+        <v>52</v>
+      </c>
+      <c r="G156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156">
+        <v>399.81536374604798</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B157">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>52</v>
+      </c>
+      <c r="G157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B158">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>51</v>
+      </c>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" t="s">
+        <v>52</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B159">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C159" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" t="s">
+        <v>51</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" t="s">
+        <v>52</v>
+      </c>
+      <c r="G159" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159">
+        <v>340.81608229476501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B160">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" t="s">
+        <v>52</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B161">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>51</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>52</v>
+      </c>
+      <c r="G161" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161">
+        <v>462.63863490090102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B162">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" t="s">
+        <v>51</v>
+      </c>
+      <c r="E162" t="s">
+        <v>82</v>
+      </c>
+      <c r="F162" t="s">
+        <v>52</v>
+      </c>
+      <c r="G162" t="s">
+        <v>34</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B163">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>52</v>
+      </c>
+      <c r="G163" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B164">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" t="s">
+        <v>52</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B165">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>83</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B166">
+        <v>4.53639574401139</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>51</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>52</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B167">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" t="s">
+        <v>52</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167">
+        <v>458.66983168607999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B168">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>83</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" t="s">
+        <v>52</v>
+      </c>
+      <c r="G168" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B169">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>84</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" t="s">
+        <v>52</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169">
+        <v>224.28309920146501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B170">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>83</v>
+      </c>
+      <c r="E170" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" t="s">
+        <v>52</v>
+      </c>
+      <c r="G170" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B171">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" t="s">
+        <v>52</v>
+      </c>
+      <c r="G171" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171">
+        <v>472.35509400224299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1.7157887015756299</v>
+      </c>
+      <c r="B172">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172" t="s">
+        <v>52</v>
+      </c>
+      <c r="G172" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B173">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173" t="s">
+        <v>52</v>
+      </c>
+      <c r="G173" t="s">
+        <v>85</v>
+      </c>
+      <c r="H173">
+        <v>398.75623919288802</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B174">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>83</v>
+      </c>
+      <c r="E174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" t="s">
+        <v>52</v>
+      </c>
+      <c r="G174" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B175">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>83</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175" t="s">
+        <v>52</v>
+      </c>
+      <c r="G175" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4.4984343590640199</v>
+      </c>
+      <c r="B176">
+        <v>5.6319290462029601</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>83</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" t="s">
+        <v>52</v>
+      </c>
+      <c r="G176" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B177">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" t="s">
+        <v>86</v>
+      </c>
+      <c r="G177" t="s">
+        <v>34</v>
+      </c>
+      <c r="H177">
+        <v>373.08084592135202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B178">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" t="s">
+        <v>52</v>
+      </c>
+      <c r="G178" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B179">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" t="s">
+        <v>52</v>
+      </c>
+      <c r="G179" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="180" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B180">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C180" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" t="s">
+        <v>52</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180">
+        <v>377.22334370862302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B181">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" t="s">
+        <v>52</v>
+      </c>
+      <c r="G181" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B182">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>83</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" t="s">
+        <v>52</v>
+      </c>
+      <c r="G182" t="s">
+        <v>34</v>
+      </c>
+      <c r="H182">
+        <v>489.70666033384703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1.5593486935293801</v>
+      </c>
+      <c r="B183">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" t="s">
+        <v>52</v>
+      </c>
+      <c r="G183" t="s">
+        <v>34</v>
+      </c>
+      <c r="H183">
+        <v>209.84846547938901</v>
+      </c>
+    </row>
+    <row r="184" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B184">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>88</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" t="s">
+        <v>52</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184">
+        <v>402.46831315335902</v>
+      </c>
+    </row>
+    <row r="185" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2.7270934416336701</v>
+      </c>
+      <c r="B185">
+        <v>1.56900652003531</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>52</v>
+      </c>
+      <c r="G185" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>35</v>
       </c>
-      <c r="B103">
+      <c r="B186">
         <v>0</v>
       </c>
-      <c r="C103">
+      <c r="C186">
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D186">
         <v>0</v>
       </c>
-      <c r="E103">
+      <c r="E186">
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F186">
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G186">
         <v>0</v>
       </c>
-      <c r="H103">
+      <c r="H186">
         <v>0</v>
       </c>
-      <c r="I103">
+      <c r="I186">
         <v>0</v>
       </c>
-      <c r="J103">
+      <c r="J186">
         <v>173.069712000457</v>
       </c>
-      <c r="K103">
+      <c r="K186">
         <v>173.069712000457</v>
       </c>
-      <c r="L103">
+      <c r="L186">
         <v>280.34105413590601</v>
       </c>
-      <c r="M103">
+      <c r="M186">
         <v>280.34105413590601</v>
       </c>
-      <c r="N103">
+      <c r="N186">
         <v>280.34105413590601</v>
       </c>
-      <c r="O103">
+      <c r="O186">
         <v>280.34105413590601</v>
       </c>
-      <c r="P103">
+      <c r="P186">
         <v>280.34105413590601</v>
       </c>
-      <c r="Q103">
+      <c r="Q186">
         <v>280.34105413590601</v>
       </c>
-      <c r="R103">
+      <c r="R186">
         <v>280.34105413590601</v>
       </c>
-      <c r="S103">
+      <c r="S186">
         <v>280.34105413590601</v>
       </c>
-      <c r="T103">
+      <c r="T186">
         <v>280.34105413590601</v>
       </c>
-      <c r="U103">
+      <c r="U186">
         <v>280.34105413590601</v>
       </c>
-      <c r="V103">
+      <c r="V186">
         <v>280.34105413590601</v>
       </c>
-      <c r="W103">
+      <c r="W186">
         <v>403.69339294538099</v>
       </c>
-      <c r="X103">
+      <c r="X186">
         <v>403.69339294538099</v>
       </c>
-      <c r="Y103">
+      <c r="Y186">
         <v>403.69339294538099</v>
       </c>
-      <c r="Z103">
+      <c r="Z186">
         <v>403.69339294538099</v>
       </c>
-      <c r="AA103">
+      <c r="AA186">
         <v>403.69339294538099</v>
       </c>
-      <c r="AB103">
+      <c r="AB186">
         <v>472.35509400224299</v>
       </c>
-      <c r="AC103">
+      <c r="AC186">
         <v>472.35509400224299</v>
       </c>
-      <c r="AD103">
+      <c r="AD186">
         <v>472.35509400224299</v>
       </c>
-      <c r="AE103">
+      <c r="AE186">
         <v>472.35509400224299</v>
       </c>
-      <c r="AF103">
+      <c r="AF186">
         <v>472.35509400224299</v>
       </c>
-      <c r="AG103" t="s">
-        <v>58</v>
+      <c r="AG186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AH186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AI186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AJ186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AK186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AL186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AM186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AN186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AO186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AP186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AQ186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AR186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AS186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AT186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AU186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AV186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AW186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AX186">
+        <v>472.35509400224299</v>
+      </c>
+      <c r="AY186">
+        <v>489.70666033384703</v>
+      </c>
+      <c r="AZ186">
+        <v>489.70666033384703</v>
+      </c>
+      <c r="BA186">
+        <v>489.70666033384703</v>
+      </c>
+      <c r="BB186">
+        <v>489.70666033384703</v>
+      </c>
+      <c r="BC186">
+        <v>489.70666033384703</v>
+      </c>
+      <c r="BD186">
+        <v>489.70666033384703</v>
       </c>
     </row>
   </sheetData>
